--- a/TalinumFacultativeCAM.study.xlsx
+++ b/TalinumFacultativeCAM.study.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/Hackathon_ARCexample_rnaseq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED18AFAF-C930-EC4B-AC2D-7FD0E9FCBAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA144F5-E040-014A-BF64-3AABFF029811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
     <t>CAM</t>
   </si>
   <si>
-    <t>C3</t>
+    <t>reC3</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1018,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
